--- a/src/test/resources/testdata/loginData.xlsx
+++ b/src/test/resources/testdata/loginData.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\frontgate-tests\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B672583-EA0B-4A10-A09C-7456C3ABB83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A4430C90-E937-4119-8E89-7F5A3B1374B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Email</t>
   </si>
@@ -33,23 +29,45 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ahmadj7hanani0@gmail.com</t>
-  </si>
-  <si>
     <t>WrongPass$123</t>
   </si>
   <si>
     <t>0569630981Aa$</t>
   </si>
   <si>
-    <t xml:space="preserve">ahmadj7hanani0@gmail </t>
+    <t>RunFlag</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>ahmadj7hanani0@gmail</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ahmad@@gmail</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,22 +79,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,11 +116,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -126,15 +127,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,54 +407,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
-    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="52.77734375"/>
+    <col min="2" max="2" customWidth="true" width="91.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{9A631208-C40E-4211-BC68-16F98ECE907D}"/>
-    <hyperlink ref="A4" r:id="rId2" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{2A1E84E0-869F-4B8F-9356-3BD15EA4F24C}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{22A1AB23-64B5-44E4-81D5-DB59C63F5CAA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/loginData.xlsx
+++ b/src/test/resources/testdata/loginData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A4430C90-E937-4119-8E89-7F5A3B1374B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F7FFBB9-31BD-4FC0-B094-C0DEE58B5167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -54,19 +54,12 @@
   </si>
   <si>
     <t>SKIPPED</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,10 +114,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -409,14 +402,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.77734375"/>
-    <col min="2" max="2" customWidth="true" width="91.0"/>
+    <col min="1" max="1" width="52.77734375" customWidth="1"/>
+    <col min="2" max="2" width="91" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -444,7 +437,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -456,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -470,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -482,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/src/test/resources/testdata/loginData.xlsx
+++ b/src/test/resources/testdata/loginData.xlsx
@@ -3,15 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F7FFBB9-31BD-4FC0-B094-C0DEE58B5167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\frontgate-tests\src\test\resources\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33D6EF-5039-4393-B731-77FC6D20D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Email</t>
   </si>
@@ -29,38 +34,68 @@
     <t>Password</t>
   </si>
   <si>
-    <t>WrongPass$123</t>
+    <t>RunFlag</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>ahmadj7hanani0@gmail.com</t>
   </si>
   <si>
     <t>0569630981Aa$</t>
   </si>
   <si>
-    <t>RunFlag</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>ahmadj7hanani0@gmail</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>ahmad@@gmail</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-  </si>
-  <si>
-    <t>SKIPPED</t>
+    <t>ahmad@gmail.com</t>
+  </si>
+  <si>
+    <t>0569630981Aa$4</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Frontgate Resort Collection™ Bath Towels</t>
+  </si>
+  <si>
+    <t>Bath Towel</t>
+  </si>
+  <si>
+    <t>Chiffon</t>
+  </si>
+  <si>
+    <t>Bath Mat</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Resort Bath Sheet</t>
+  </si>
+  <si>
+    <t>Bath Sheet</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +107,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,19 +152,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,17 +450,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
-    <col min="2" max="2" width="91" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,75 +469,162 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{3995E7E8-73FD-48C9-8F0C-D84E9D966214}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:ahmad@gmail.com" xr:uid="{EA1A1564-25AC-43F0-84C4-3AB61E0296C8}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{60B0BD1E-7F0C-4BF1-BEDD-EB1C2403E9EA}"/>
+    <hyperlink ref="A6" r:id="rId4" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{4B39E79F-3304-47B2-8E43-89F7CA154CB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4B50ED-D640-4882-962A-B87D9E6522A9}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/loginData.xlsx
+++ b/src/test/resources/testdata/loginData.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\frontgate-tests\src\test\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33D6EF-5039-4393-B731-77FC6D20D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F1091531-2434-4CCD-801E-0F9270C2D1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Products" sheetId="2" r:id="rId2"/>
+    <sheet name="Address" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:S13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Email</t>
   </si>
@@ -43,16 +40,22 @@
     <t>ahmadj7hanani0@gmail.com</t>
   </si>
   <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>ahmad@gmail.com</t>
+  </si>
+  <si>
     <t>0569630981Aa$</t>
   </si>
   <si>
+    <t>0569630981Aa$4</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>ahmad@gmail.com</t>
-  </si>
-  <si>
-    <t>0569630981Aa$4</t>
+    <t>ERROR</t>
   </si>
   <si>
     <t>ProductName</t>
@@ -76,6 +79,9 @@
     <t>Chiffon</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Bath Mat</t>
   </si>
   <si>
@@ -89,6 +95,42 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Hanani</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>055-698-4554</t>
   </si>
 </sst>
 </file>
@@ -450,16 +492,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -475,27 +512,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -504,46 +541,48 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{3995E7E8-73FD-48C9-8F0C-D84E9D966214}"/>
-    <hyperlink ref="A3" r:id="rId2" display="mailto:ahmad@gmail.com" xr:uid="{EA1A1564-25AC-43F0-84C4-3AB61E0296C8}"/>
-    <hyperlink ref="A4" r:id="rId3" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{60B0BD1E-7F0C-4BF1-BEDD-EB1C2403E9EA}"/>
-    <hyperlink ref="A6" r:id="rId4" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{4B39E79F-3304-47B2-8E43-89F7CA154CB7}"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{67C725D2-74DF-4DB9-80E4-4254E01278B4}"/>
+    <hyperlink ref="A3" r:id="rId2" display="mailto:ahmad@gmail.com" xr:uid="{C0711184-7508-4569-A86E-B0512FA1F40A}"/>
+    <hyperlink ref="A4" r:id="rId3" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{2F74CE3F-BF2E-49CA-B24E-BB0C5B5FD1F5}"/>
+    <hyperlink ref="A6" r:id="rId4" display="mailto:ahmadj7hanani0@gmail.com" xr:uid="{DCC012DF-FE3D-4C52-BB93-81F0B6695938}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4B50ED-D640-4882-962A-B87D9E6522A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66271C97-A9F9-4017-BA00-679D6E913E49}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -554,16 +593,16 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -574,57 +613,132 @@
     </row>
     <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DA47EC-A97B-404A-AA84-707CD943F04C}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10167</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
